--- a/Proyecto_EDA/BBDD/Data_project/Price/By_year/Durum_Wheat_Prices_ES_2015-2025.xlsx
+++ b/Proyecto_EDA/BBDD/Data_project/Price/By_year/Durum_Wheat_Prices_ES_2015-2025.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\BBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\GIT_Hub_HF\GIT-HUB-HF\Proyecto_EDA\BBDD\Data_project\Price\By_year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C1FB68-B6F9-419B-BA48-432AA155CC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A2CBF-0679-4564-8ED5-45DBDEEE94C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Price_EUR_ton" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -145,7 +145,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     </dxf>
@@ -182,7 +191,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Durum_Wheat_Prices_ES_2015-2025.xlsx]Sheet1!TablaDinámica6</c:name>
+    <c:name>[Durum_Wheat_Prices_ES_2015-2025.xlsx]Price_EUR_ton!TablaDinámica6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -285,7 +294,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Price_EUR_ton!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -308,7 +317,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$2:$F$14</c:f>
+              <c:f>Price_EUR_ton!$F$2:$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -352,7 +361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$14</c:f>
+              <c:f>Price_EUR_ton!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0.00_);[Red]\("€"#,##0.00\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1220,7 +1229,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Usuario" refreshedDate="45967.767794444444" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1846" xr:uid="{BE381E35-E38D-42BC-9F85-6F1F0D7DD508}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C1847" sheet="Sheet1"/>
+    <worksheetSource ref="A1:C1847" sheet="Price_EUR_ton"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Date" numFmtId="164">
@@ -11107,7 +11116,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52109471-BC17-461E-B805-8058F9D1C767}" name="TablaDinámica6" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52109471-BC17-461E-B805-8058F9D1C767}" name="TablaDinámica6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="F1:G14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -11794,10 +11803,10 @@
     <dataField name="Promedio de Price (€/tonne)" fld="2" subtotal="average" baseField="5" baseItem="1" numFmtId="8"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12114,7 +12123,7 @@
   <dimension ref="A1:G1847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C1847" sqref="C1847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12374,6 +12383,7 @@
       <c r="C15">
         <v>300</v>
       </c>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -12385,8 +12395,9 @@
       <c r="C16">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>41865</v>
       </c>
@@ -12396,8 +12407,9 @@
       <c r="C17">
         <v>303</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>41865</v>
       </c>
@@ -12407,8 +12419,9 @@
       <c r="C18">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>41865</v>
       </c>
@@ -12419,7 +12432,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>41872</v>
       </c>
@@ -12430,7 +12443,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41872</v>
       </c>
@@ -12441,7 +12454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>41872</v>
       </c>
@@ -12452,7 +12465,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>41879</v>
       </c>
@@ -12463,7 +12476,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>41879</v>
       </c>
@@ -12474,7 +12487,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>41879</v>
       </c>
@@ -12485,7 +12498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>41893</v>
       </c>
@@ -12496,7 +12509,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>41893</v>
       </c>
@@ -12507,7 +12520,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>41893</v>
       </c>
@@ -12518,7 +12531,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>41900</v>
       </c>
@@ -12529,7 +12542,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>41900</v>
       </c>
@@ -12540,7 +12553,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>41900</v>
       </c>
@@ -12551,7 +12564,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>41907</v>
       </c>
